--- a/w6_7/experiments.xlsx
+++ b/w6_7/experiments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\vinbrain-internship\w6_7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44871AD3-1253-4A9D-8C5D-204162DA23FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36EC6233-7569-47F1-B1D9-B2DF41A9D094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
   <si>
     <t>Dataset</t>
   </si>
@@ -68,15 +68,6 @@
     <t>Pixel Shuffle</t>
   </si>
   <si>
-    <t>Cosine Anealing Warm Start 
-- T0 1
-- Tmul 3</t>
-  </si>
-  <si>
-    <t>Architecture
-(encoder - decoder)</t>
-  </si>
-  <si>
     <t>Pneumothorax</t>
   </si>
   <si>
@@ -84,11 +75,6 @@
   </si>
   <si>
     <t>Albunet</t>
-  </si>
-  <si>
-    <t>ReduceLROnPlateau 
-- lr:1e-4 
-- patient:6</t>
   </si>
   <si>
     <t>Comboloss:
@@ -109,6 +95,16 @@
   </si>
   <si>
     <t>Focalloss</t>
+  </si>
+  <si>
+    <t>Architecture(encoder - decoder)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ReduceLROnPlateau 
+- lr:1e-4 </t>
+  </si>
+  <si>
+    <t>Diceloss</t>
   </si>
 </sst>
 </file>
@@ -146,7 +142,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -169,35 +165,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -208,13 +180,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
@@ -503,55 +470,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:D14"/>
+  <dimension ref="A2:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="B2:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19" style="3" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="1" max="1" width="42.42578125" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" customWidth="1"/>
+    <col min="4" max="4" width="25.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-    </row>
-    <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-    </row>
-    <row r="4" spans="1:4" ht="90.75" x14ac:dyDescent="0.3">
+      <c r="B3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" ht="60.75" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -564,22 +536,28 @@
       <c r="D5" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="E5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -592,22 +570,28 @@
       <c r="D7" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="75.75" x14ac:dyDescent="0.3">
+      <c r="E7" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="60.75" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -620,37 +604,46 @@
       <c r="D9" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E9" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C10" s="2">
-        <v>80.040000000000006</v>
-      </c>
-      <c r="D10" s="2">
         <v>81.19</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="165.75" x14ac:dyDescent="0.3">
+      <c r="D10">
+        <v>79.69</v>
+      </c>
+      <c r="E10">
+        <v>80.91</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="255.75" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="7"/>
+      <c r="B11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/w6_7/experiments.xlsx
+++ b/w6_7/experiments.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\vinbrain-internship\w6_7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36EC6233-7569-47F1-B1D9-B2DF41A9D094}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3225F8F5-3B4C-40B0-8178-2370E14BA1D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Trang_tính2" sheetId="6" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="30">
   <si>
     <t>Dataset</t>
   </si>
@@ -105,6 +106,30 @@
   </si>
   <si>
     <t>Diceloss</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>Resnext101-instagram</t>
+  </si>
+  <si>
+    <t>resnext101-imagenet</t>
+  </si>
+  <si>
+    <t>efficientnetB7</t>
+  </si>
+  <si>
+    <t>efficientnetB7 - noisystudent</t>
+  </si>
+  <si>
+    <t>dense121</t>
+  </si>
+  <si>
+    <t>Resnet101</t>
+  </si>
+  <si>
+    <t>SDM</t>
   </si>
 </sst>
 </file>
@@ -169,7 +194,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -190,6 +215,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
@@ -472,8 +498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="B2:E6"/>
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -654,4 +680,78 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C089812-934E-4504-8E4A-D88B7C9025AF}">
+  <dimension ref="A5:B12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7">
+        <v>0.77629999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="8">
+        <v>0.80020000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11">
+        <v>0.8075</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12">
+        <v>0.80200000000000005</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/w6_7/experiments.xlsx
+++ b/w6_7/experiments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\vinbrain-internship\w6_7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3225F8F5-3B4C-40B0-8178-2370E14BA1D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75C772BA-112A-4B5A-98EC-EB759F66FAF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -206,9 +206,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -216,6 +213,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
@@ -514,22 +514,22 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5" ht="60.75" x14ac:dyDescent="0.3">
@@ -655,21 +655,21 @@
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="6"/>
+      <c r="B14" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -687,7 +687,7 @@
   <dimension ref="A5:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -700,7 +700,7 @@
       <c r="A5" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>15</v>
       </c>
     </row>
@@ -721,7 +721,7 @@
       <c r="A8" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="7">
         <v>0.80020000000000002</v>
       </c>
     </row>
@@ -729,10 +729,16 @@
       <c r="A9" t="s">
         <v>24</v>
       </c>
+      <c r="B9">
+        <v>0.80279999999999996</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>25</v>
+      </c>
+      <c r="B10">
+        <v>0.80189999999999995</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">

--- a/w6_7/experiments.xlsx
+++ b/w6_7/experiments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\vinbrain-internship\w6_7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3225F8F5-3B4C-40B0-8178-2370E14BA1D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CEC680A-54DD-4413-A967-6384042A2033}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="31">
   <si>
     <t>Dataset</t>
   </si>
@@ -130,13 +130,16 @@
   </si>
   <si>
     <t>SDM</t>
+  </si>
+  <si>
+    <t>num parameters</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,6 +160,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF212121"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -194,7 +203,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -206,9 +215,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -216,6 +222,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
@@ -514,22 +524,22 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5" ht="60.75" x14ac:dyDescent="0.3">
@@ -655,21 +665,21 @@
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="6"/>
+      <c r="B14" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -684,74 +694,109 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C089812-934E-4504-8E4A-D88B7C9025AF}">
-  <dimension ref="A5:B12"/>
+  <dimension ref="A5:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40.28515625" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>0.80459999999999998</v>
+      </c>
+      <c r="C6" s="9">
+        <v>76004833</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>28</v>
       </c>
       <c r="B7">
         <v>0.77629999999999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" s="9">
+        <v>57287273</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="7">
         <v>0.80020000000000002</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" s="9">
+        <v>101529449</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>0.80279999999999996</v>
+      </c>
+      <c r="C9" s="9">
+        <v>101529449</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>0.80189999999999995</v>
+      </c>
+      <c r="C10" s="9">
+        <v>78801401</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>26</v>
       </c>
       <c r="B11">
         <v>0.8075</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11" s="9">
+        <v>78801401</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>27</v>
       </c>
       <c r="B12">
         <v>0.80200000000000005</v>
       </c>
+      <c r="C12" s="9">
+        <v>19167681</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/w6_7/experiments.xlsx
+++ b/w6_7/experiments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\vinbrain-internship\w6_7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CEC680A-54DD-4413-A967-6384042A2033}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC4ACD57-5C38-4E2C-925B-4B15FD2A6D64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1470" yWindow="2100" windowWidth="15375" windowHeight="7875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -203,7 +203,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -222,10 +222,11 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
@@ -524,22 +525,22 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5" ht="60.75" x14ac:dyDescent="0.3">
@@ -694,10 +695,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C089812-934E-4504-8E4A-D88B7C9025AF}">
-  <dimension ref="A5:C12"/>
+  <dimension ref="A5:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -707,7 +708,7 @@
     <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -718,81 +719,84 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>29</v>
       </c>
       <c r="B6">
         <v>0.80459999999999998</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="8">
         <v>76004833</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>28</v>
       </c>
       <c r="B7">
         <v>0.77629999999999999</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="8">
         <v>57287273</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="7">
         <v>0.80020000000000002</v>
       </c>
-      <c r="C8" s="9">
+      <c r="C8" s="8">
         <v>101529449</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>24</v>
       </c>
       <c r="B9">
         <v>0.80279999999999996</v>
       </c>
-      <c r="C9" s="9">
+      <c r="C9" s="8">
         <v>101529449</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>25</v>
       </c>
       <c r="B10">
         <v>0.80189999999999995</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="8">
         <v>78801401</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>26</v>
       </c>
       <c r="B11">
         <v>0.8075</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="8">
         <v>78801401</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>27</v>
       </c>
       <c r="B12">
         <v>0.80200000000000005</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="8">
         <v>19167681</v>
+      </c>
+      <c r="D12" s="10">
+        <v>0.81420000000000003</v>
       </c>
     </row>
   </sheetData>

--- a/w6_7/experiments.xlsx
+++ b/w6_7/experiments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\vinbrain-internship\w6_7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC4ACD57-5C38-4E2C-925B-4B15FD2A6D64}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2183176D-83D3-47CB-A2B1-97FC88A83AE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="2100" windowWidth="15375" windowHeight="7875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
   <si>
     <t>Dataset</t>
   </si>
@@ -133,6 +133,11 @@
   </si>
   <si>
     <t>num parameters</t>
+  </si>
+  <si>
+    <t>- first 40 epochs: rate positive:0.8 - lr~=1e-4
+- next 40 epochs: rate postive:0.6 - lr~=5e-5
+- final: rate postive:0.4 - lr~=1e-5</t>
   </si>
 </sst>
 </file>
@@ -223,10 +228,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
@@ -525,22 +530,22 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5" ht="60.75" x14ac:dyDescent="0.3">
@@ -698,7 +703,7 @@
   <dimension ref="A5:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="F14" sqref="F14:Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -706,6 +711,7 @@
     <col min="1" max="1" width="27.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40.28515625" customWidth="1"/>
     <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -718,6 +724,9 @@
       <c r="C5" t="s">
         <v>30</v>
       </c>
+      <c r="D5" s="6" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -740,6 +749,9 @@
       <c r="C7" s="8">
         <v>57287273</v>
       </c>
+      <c r="D7">
+        <v>0.79759999999999998</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -751,6 +763,9 @@
       <c r="C8" s="8">
         <v>101529449</v>
       </c>
+      <c r="D8">
+        <v>0.8216</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -762,6 +777,9 @@
       <c r="C9" s="8">
         <v>101529449</v>
       </c>
+      <c r="D9">
+        <v>0.81579999999999997</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -773,6 +791,9 @@
       <c r="C10" s="8">
         <v>78801401</v>
       </c>
+      <c r="D10">
+        <v>0.80630000000000002</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -784,6 +805,9 @@
       <c r="C11" s="8">
         <v>78801401</v>
       </c>
+      <c r="D11">
+        <v>0.81299999999999994</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -795,7 +819,7 @@
       <c r="C12" s="8">
         <v>19167681</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="9">
         <v>0.81420000000000003</v>
       </c>
     </row>

--- a/w6_7/experiments.xlsx
+++ b/w6_7/experiments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\vinbrain-internship\w6_7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2183176D-83D3-47CB-A2B1-97FC88A83AE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F4B915-F147-461A-AA92-DD6A58880873}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -144,7 +144,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -171,6 +174,14 @@
       <color rgb="FF212121"/>
       <name val="Courier New"/>
       <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -208,7 +219,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -232,6 +243,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
@@ -700,10 +714,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C089812-934E-4504-8E4A-D88B7C9025AF}">
-  <dimension ref="A5:D12"/>
+  <dimension ref="A5:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14:Q14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -714,7 +728,7 @@
     <col min="4" max="4" width="49.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -728,7 +742,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -738,8 +752,11 @@
       <c r="C6" s="8">
         <v>76004833</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D6" s="12">
+        <v>0.82669999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -753,7 +770,7 @@
         <v>0.79759999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -763,11 +780,12 @@
       <c r="C8" s="8">
         <v>101529449</v>
       </c>
-      <c r="D8">
-        <v>0.8216</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D8" s="13">
+        <v>0.81640000000000001</v>
+      </c>
+      <c r="E8" s="9"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -781,7 +799,7 @@
         <v>0.81579999999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -791,11 +809,11 @@
       <c r="C10" s="8">
         <v>78801401</v>
       </c>
-      <c r="D10">
-        <v>0.80630000000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D10" s="11">
+        <v>0.80800000000000005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -806,10 +824,10 @@
         <v>78801401</v>
       </c>
       <c r="D11">
-        <v>0.81299999999999994</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0.81610000000000005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -819,7 +837,7 @@
       <c r="C12" s="8">
         <v>19167681</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12">
         <v>0.81420000000000003</v>
       </c>
     </row>

--- a/w6_7/experiments.xlsx
+++ b/w6_7/experiments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\vinbrain-internship\w6_7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75C772BA-112A-4B5A-98EC-EB759F66FAF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F4B915-F147-461A-AA92-DD6A58880873}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
   <si>
     <t>Dataset</t>
   </si>
@@ -130,13 +130,24 @@
   </si>
   <si>
     <t>SDM</t>
+  </si>
+  <si>
+    <t>num parameters</t>
+  </si>
+  <si>
+    <t>- first 40 epochs: rate positive:0.8 - lr~=1e-4
+- next 40 epochs: rate postive:0.6 - lr~=5e-5
+- final: rate postive:0.4 - lr~=1e-5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,6 +165,20 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF212121"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -194,7 +219,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -213,9 +238,14 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
@@ -514,22 +544,22 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5" ht="60.75" x14ac:dyDescent="0.3">
@@ -684,80 +714,135 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C089812-934E-4504-8E4A-D88B7C9025AF}">
-  <dimension ref="A5:B12"/>
+  <dimension ref="A5:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40.28515625" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="49.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>0.80459999999999998</v>
+      </c>
+      <c r="C6" s="8">
+        <v>76004833</v>
+      </c>
+      <c r="D6" s="12">
+        <v>0.82669999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>28</v>
       </c>
       <c r="B7">
         <v>0.77629999999999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7" s="8">
+        <v>57287273</v>
+      </c>
+      <c r="D7">
+        <v>0.79759999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="7">
         <v>0.80020000000000002</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8" s="8">
+        <v>101529449</v>
+      </c>
+      <c r="D8" s="13">
+        <v>0.81640000000000001</v>
+      </c>
+      <c r="E8" s="9"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>24</v>
       </c>
       <c r="B9">
         <v>0.80279999999999996</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9" s="8">
+        <v>101529449</v>
+      </c>
+      <c r="D9">
+        <v>0.81579999999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>25</v>
       </c>
       <c r="B10">
         <v>0.80189999999999995</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10" s="8">
+        <v>78801401</v>
+      </c>
+      <c r="D10" s="11">
+        <v>0.80800000000000005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>26</v>
       </c>
       <c r="B11">
         <v>0.8075</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11" s="8">
+        <v>78801401</v>
+      </c>
+      <c r="D11">
+        <v>0.81610000000000005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>27</v>
       </c>
       <c r="B12">
         <v>0.80200000000000005</v>
       </c>
+      <c r="C12" s="8">
+        <v>19167681</v>
+      </c>
+      <c r="D12">
+        <v>0.81420000000000003</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/w6_7/experiments.xlsx
+++ b/w6_7/experiments.xlsx
@@ -8,26 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\vinbrain-internship\w6_7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F4B915-F147-461A-AA92-DD6A58880873}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B28A731E-FF72-473A-9BE8-D4BE2241530D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1470" yWindow="2100" windowWidth="15375" windowHeight="7875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Trang_tính2" sheetId="6" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -144,10 +136,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0000"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="#,##0;[Red]#,##0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,6 +172,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -219,7 +219,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -240,15 +240,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -544,22 +547,22 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5" ht="60.75" x14ac:dyDescent="0.3">
@@ -714,10 +717,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C089812-934E-4504-8E4A-D88B7C9025AF}">
-  <dimension ref="A5:E12"/>
+  <dimension ref="A5:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -726,9 +729,11 @@
     <col min="2" max="2" width="40.28515625" customWidth="1"/>
     <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="49.140625" customWidth="1"/>
+    <col min="6" max="6" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -742,7 +747,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>29</v>
       </c>
@@ -752,11 +757,11 @@
       <c r="C6" s="8">
         <v>76004833</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="11">
         <v>0.82669999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -770,7 +775,7 @@
         <v>0.79759999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -780,12 +785,12 @@
       <c r="C8" s="8">
         <v>101529449</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="12">
         <v>0.81640000000000001</v>
       </c>
       <c r="E8" s="9"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -799,7 +804,7 @@
         <v>0.81579999999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -809,11 +814,14 @@
       <c r="C10" s="8">
         <v>78801401</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="10">
         <v>0.80800000000000005</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" s="13">
+        <v>11181642</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -827,7 +835,7 @@
         <v>0.81610000000000005</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -839,6 +847,24 @@
       </c>
       <c r="D12">
         <v>0.81420000000000003</v>
+      </c>
+      <c r="F12" s="13">
+        <v>62006</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F14" s="13">
+        <v>134301514</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="G15" s="13">
+        <v>117520202</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="F16" s="13">
+        <v>21289802</v>
       </c>
     </row>
   </sheetData>

--- a/w6_7/experiments.xlsx
+++ b/w6_7/experiments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\vinbrain-internship\w6_7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B28A731E-FF72-473A-9BE8-D4BE2241530D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA39C5CE-E32A-4B27-830D-0892555591BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="2100" windowWidth="15375" windowHeight="7875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -140,7 +140,7 @@
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="#,##0;[Red]#,##0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,7 +169,15 @@
       <family val="3"/>
     </font>
     <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <strike/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -177,8 +185,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="18"/>
-      <color rgb="FF000000"/>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -219,7 +228,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -241,14 +250,15 @@
     <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -547,22 +557,22 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5" ht="60.75" x14ac:dyDescent="0.3">
@@ -717,10 +727,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C089812-934E-4504-8E4A-D88B7C9025AF}">
-  <dimension ref="A5:G16"/>
+  <dimension ref="A5:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -730,10 +740,10 @@
     <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="49.140625" customWidth="1"/>
     <col min="6" max="6" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -747,21 +757,27 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>29</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="15">
         <v>0.80459999999999998</v>
       </c>
       <c r="C6" s="8">
         <v>76004833</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="14">
         <v>0.82669999999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>0.81389999999999996</v>
+      </c>
+      <c r="F6">
+        <v>0.81320000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -775,7 +791,7 @@
         <v>0.79759999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -785,12 +801,12 @@
       <c r="C8" s="8">
         <v>101529449</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="11">
         <v>0.81640000000000001</v>
       </c>
       <c r="E8" s="9"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -804,7 +820,7 @@
         <v>0.81579999999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -817,11 +833,8 @@
       <c r="D10" s="10">
         <v>0.80800000000000005</v>
       </c>
-      <c r="F10" s="13">
-        <v>11181642</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -835,7 +848,7 @@
         <v>0.81610000000000005</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -848,23 +861,43 @@
       <c r="D12">
         <v>0.81420000000000003</v>
       </c>
-      <c r="F12" s="13">
+      <c r="H12" s="12">
+        <v>11181642</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="H14" s="12">
         <v>62006</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="F14" s="13">
+    <row r="16" spans="1:8" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="H16" s="12">
         <v>134301514</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="G15" s="13">
+    <row r="17" spans="8:9" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="I17" s="12">
         <v>117520202</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="F16" s="13">
+    <row r="18" spans="8:9" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="H18" s="12">
         <v>21289802</v>
+      </c>
+    </row>
+    <row r="20" spans="8:9" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="H20" s="12">
+        <v>23528522</v>
+      </c>
+    </row>
+    <row r="21" spans="8:9" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="H21" s="12">
+        <v>25567042</v>
+      </c>
+    </row>
+    <row r="24" spans="8:9" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="H24" s="12">
+        <v>6964106</v>
       </c>
     </row>
   </sheetData>

--- a/w6_7/experiments.xlsx
+++ b/w6_7/experiments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\vinbrain-internship\w6_7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA39C5CE-E32A-4B27-830D-0892555591BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27079104-FC6A-44F9-9951-DC92A3DB2CD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -254,11 +254,11 @@
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -557,22 +557,22 @@
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5" ht="60.75" x14ac:dyDescent="0.3">
@@ -727,10 +727,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C089812-934E-4504-8E4A-D88B7C9025AF}">
-  <dimension ref="A5:I24"/>
+  <dimension ref="A5:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -739,11 +739,11 @@
     <col min="2" max="2" width="40.28515625" customWidth="1"/>
     <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="49.140625" customWidth="1"/>
-    <col min="6" max="6" width="26.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -757,27 +757,30 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="14">
         <v>0.80459999999999998</v>
       </c>
       <c r="C6" s="8">
         <v>76004833</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="13">
         <v>0.82669999999999999</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="14">
         <v>0.81389999999999996</v>
       </c>
       <c r="F6">
+        <v>0.81630000000000003</v>
+      </c>
+      <c r="G6">
         <v>0.81320000000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -791,7 +794,7 @@
         <v>0.79759999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -805,8 +808,9 @@
         <v>0.81640000000000001</v>
       </c>
       <c r="E8" s="9"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -820,7 +824,7 @@
         <v>0.81579999999999997</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -834,7 +838,7 @@
         <v>0.80800000000000005</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -848,7 +852,7 @@
         <v>0.81610000000000005</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -861,42 +865,42 @@
       <c r="D12">
         <v>0.81420000000000003</v>
       </c>
-      <c r="H12" s="12">
+      <c r="I12" s="12">
         <v>11181642</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="H14" s="12">
+    <row r="14" spans="1:9" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="I14" s="12">
         <v>62006</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="H16" s="12">
+    <row r="16" spans="1:9" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="I16" s="12">
         <v>134301514</v>
       </c>
     </row>
-    <row r="17" spans="8:9" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="I17" s="12">
+    <row r="17" spans="9:10" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="J17" s="12">
         <v>117520202</v>
       </c>
     </row>
-    <row r="18" spans="8:9" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="H18" s="12">
+    <row r="18" spans="9:10" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="I18" s="12">
         <v>21289802</v>
       </c>
     </row>
-    <row r="20" spans="8:9" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="H20" s="12">
+    <row r="20" spans="9:10" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="I20" s="12">
         <v>23528522</v>
       </c>
     </row>
-    <row r="21" spans="8:9" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="H21" s="12">
+    <row r="21" spans="9:10" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="I21" s="12">
         <v>25567042</v>
       </c>
     </row>
-    <row r="24" spans="8:9" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="H24" s="12">
+    <row r="24" spans="9:10" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="I24" s="12">
         <v>6964106</v>
       </c>
     </row>

--- a/w6_7/experiments.xlsx
+++ b/w6_7/experiments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\vinbrain-internship\w6_7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27079104-FC6A-44F9-9951-DC92A3DB2CD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A64D53C8-230E-4B7E-AEBC-B00323D67BA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -541,7 +541,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:E14"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -729,8 +729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C089812-934E-4504-8E4A-D88B7C9025AF}">
   <dimension ref="A5:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -779,6 +779,9 @@
       <c r="G6">
         <v>0.81320000000000003</v>
       </c>
+      <c r="H6" s="9">
+        <v>0.80820000000000003</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">

--- a/w6_7/experiments.xlsx
+++ b/w6_7/experiments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\vinbrain-internship\w6_7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A64D53C8-230E-4B7E-AEBC-B00323D67BA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D988D4C7-FC42-43C8-A917-3B860871C255}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -539,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:E14"/>
+  <dimension ref="A2:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -551,6 +551,7 @@
     <col min="2" max="2" width="26.28515625" style="3" customWidth="1"/>
     <col min="3" max="3" width="26.42578125" customWidth="1"/>
     <col min="4" max="4" width="25.5703125" customWidth="1"/>
+    <col min="5" max="5" width="35.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
@@ -694,7 +695,7 @@
         <v>80.91</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="255.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="90.75" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -713,6 +714,14 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
+    </row>
+    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C29">
+        <v>0.92989999999999995</v>
+      </c>
+      <c r="D29">
+        <v>0.92730000000000001</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -729,7 +738,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C089812-934E-4504-8E4A-D88B7C9025AF}">
   <dimension ref="A5:J24"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>

--- a/w6_7/experiments.xlsx
+++ b/w6_7/experiments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\vinbrain-internship\w6_7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D988D4C7-FC42-43C8-A917-3B860871C255}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE5D4E3E-93E0-4A01-A4C1-DC1E31E150F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
   <si>
     <t>Dataset</t>
   </si>
@@ -130,6 +130,21 @@
     <t>- first 40 epochs: rate positive:0.8 - lr~=1e-4
 - next 40 epochs: rate postive:0.6 - lr~=5e-5
 - final: rate postive:0.4 - lr~=1e-5</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>SGD_momentum</t>
+  </si>
+  <si>
+    <t>RMSProp</t>
+  </si>
+  <si>
+    <t>Adam</t>
+  </si>
+  <si>
+    <t>WCE</t>
   </si>
 </sst>
 </file>
@@ -539,19 +554,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:E29"/>
+  <dimension ref="A2:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42.42578125" customWidth="1"/>
     <col min="2" max="2" width="26.28515625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="26.42578125" customWidth="1"/>
-    <col min="4" max="4" width="25.5703125" customWidth="1"/>
-    <col min="5" max="5" width="35.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
@@ -715,12 +731,141 @@
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
     </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C29">
-        <v>0.92989999999999995</v>
-      </c>
-      <c r="D29">
-        <v>0.92730000000000001</v>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E20" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
+        <v>0.92469999999999997</v>
+      </c>
+      <c r="C21" s="9">
+        <v>0.88839999999999997</v>
+      </c>
+      <c r="D21" s="9">
+        <v>0.92210000000000003</v>
+      </c>
+      <c r="E21">
+        <v>0.9325</v>
+      </c>
+      <c r="F21" s="9">
+        <v>0.95050000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>0.91169999999999995</v>
+      </c>
+      <c r="C22" s="9">
+        <v>0.9012</v>
+      </c>
+      <c r="D22" s="9">
+        <v>0.92210000000000003</v>
+      </c>
+      <c r="E22" s="9">
+        <v>0.92749999999999999</v>
+      </c>
+      <c r="F22" s="9">
+        <v>0.96089999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="C23" s="9">
+        <v>0.9012</v>
+      </c>
+      <c r="D23" s="9">
+        <v>0.9325</v>
+      </c>
+      <c r="E23" s="9">
+        <v>0.94289999999999996</v>
+      </c>
+      <c r="F23" s="9">
+        <v>0.93510000000000004</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="9"/>
+      <c r="C24" s="9">
+        <v>0.91169999999999995</v>
+      </c>
+      <c r="D24" s="9">
+        <v>0.90910000000000002</v>
+      </c>
+      <c r="E24">
+        <v>0.9375</v>
+      </c>
+      <c r="F24" s="9">
+        <v>0.94030000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <f>AVERAGE(C21:C24)</f>
+        <v>0.90062500000000001</v>
+      </c>
+      <c r="D26">
+        <f t="shared" ref="D26:F28" si="0">AVERAGE(D21:D24)</f>
+        <v>0.92144999999999999</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="0"/>
+        <v>0.93509999999999993</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>0.94669999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <f>STDEV(C21:C24)</f>
+        <v>9.5353290451876873E-3</v>
+      </c>
+      <c r="D27">
+        <f t="shared" ref="D27:F27" si="1">STDEV(D21:D24)</f>
+        <v>9.5824492345815849E-3</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="1"/>
+        <v>6.6111017740363457E-3</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="1"/>
+        <v>1.1425118526008065E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C28">
+        <f>STDEV(C21:C24)</f>
+        <v>9.5353290451876873E-3</v>
+      </c>
+      <c r="D28">
+        <f t="shared" ref="D28:F28" si="2">STDEV(D21:D24)</f>
+        <v>9.5824492345815849E-3</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="2"/>
+        <v>6.6111017740363457E-3</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="2"/>
+        <v>1.1425118526008065E-2</v>
       </c>
     </row>
   </sheetData>

--- a/w6_7/experiments.xlsx
+++ b/w6_7/experiments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\vinbrain-internship\w6_7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE5D4E3E-93E0-4A01-A4C1-DC1E31E150F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{669FEBFF-8E69-4CD7-93DA-EBCD330AF82F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
   <si>
     <t>Dataset</t>
   </si>
@@ -130,21 +130,6 @@
     <t>- first 40 epochs: rate positive:0.8 - lr~=1e-4
 - next 40 epochs: rate postive:0.6 - lr~=5e-5
 - final: rate postive:0.4 - lr~=1e-5</t>
-  </si>
-  <si>
-    <t>SGD</t>
-  </si>
-  <si>
-    <t>SGD_momentum</t>
-  </si>
-  <si>
-    <t>RMSProp</t>
-  </si>
-  <si>
-    <t>Adam</t>
-  </si>
-  <si>
-    <t>WCE</t>
   </si>
 </sst>
 </file>
@@ -554,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:F28"/>
+  <dimension ref="A2:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G31" sqref="A20:G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -731,142 +716,30 @@
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" t="s">
-        <v>32</v>
-      </c>
-      <c r="D20" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" t="s">
-        <v>34</v>
-      </c>
-      <c r="F20" t="s">
-        <v>35</v>
-      </c>
-    </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="9">
-        <v>0.92469999999999997</v>
-      </c>
-      <c r="C21" s="9">
-        <v>0.88839999999999997</v>
-      </c>
-      <c r="D21" s="9">
-        <v>0.92210000000000003</v>
-      </c>
-      <c r="E21">
-        <v>0.9325</v>
-      </c>
-      <c r="F21" s="9">
-        <v>0.95050000000000001</v>
-      </c>
+      <c r="A21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="F21" s="9"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>0.91169999999999995</v>
-      </c>
-      <c r="C22" s="9">
-        <v>0.9012</v>
-      </c>
-      <c r="D22" s="9">
-        <v>0.92210000000000003</v>
-      </c>
-      <c r="E22" s="9">
-        <v>0.92749999999999999</v>
-      </c>
-      <c r="F22" s="9">
-        <v>0.96089999999999998</v>
-      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="9">
-        <v>0.90400000000000003</v>
-      </c>
-      <c r="C23" s="9">
-        <v>0.9012</v>
-      </c>
-      <c r="D23" s="9">
-        <v>0.9325</v>
-      </c>
-      <c r="E23" s="9">
-        <v>0.94289999999999996</v>
-      </c>
-      <c r="F23" s="9">
-        <v>0.93510000000000004</v>
-      </c>
+      <c r="A23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>
-      <c r="C24" s="9">
-        <v>0.91169999999999995</v>
-      </c>
-      <c r="D24" s="9">
-        <v>0.90910000000000002</v>
-      </c>
-      <c r="E24">
-        <v>0.9375</v>
-      </c>
-      <c r="F24" s="9">
-        <v>0.94030000000000002</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C26">
-        <f>AVERAGE(C21:C24)</f>
-        <v>0.90062500000000001</v>
-      </c>
-      <c r="D26">
-        <f t="shared" ref="D26:F28" si="0">AVERAGE(D21:D24)</f>
-        <v>0.92144999999999999</v>
-      </c>
-      <c r="E26">
-        <f t="shared" si="0"/>
-        <v>0.93509999999999993</v>
-      </c>
-      <c r="F26">
-        <f t="shared" si="0"/>
-        <v>0.94669999999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C27">
-        <f>STDEV(C21:C24)</f>
-        <v>9.5353290451876873E-3</v>
-      </c>
-      <c r="D27">
-        <f t="shared" ref="D27:F27" si="1">STDEV(D21:D24)</f>
-        <v>9.5824492345815849E-3</v>
-      </c>
-      <c r="E27">
-        <f t="shared" si="1"/>
-        <v>6.6111017740363457E-3</v>
-      </c>
-      <c r="F27">
-        <f t="shared" si="1"/>
-        <v>1.1425118526008065E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C28">
-        <f>STDEV(C21:C24)</f>
-        <v>9.5353290451876873E-3</v>
-      </c>
-      <c r="D28">
-        <f t="shared" ref="D28:F28" si="2">STDEV(D21:D24)</f>
-        <v>9.5824492345815849E-3</v>
-      </c>
-      <c r="E28">
-        <f t="shared" si="2"/>
-        <v>6.6111017740363457E-3</v>
-      </c>
-      <c r="F28">
-        <f t="shared" si="2"/>
-        <v>1.1425118526008065E-2</v>
-      </c>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="F24" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -884,7 +757,7 @@
   <dimension ref="A5:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1022,44 +895,28 @@
       <c r="D12">
         <v>0.81420000000000003</v>
       </c>
-      <c r="I12" s="12">
-        <v>11181642</v>
-      </c>
+      <c r="I12" s="12"/>
     </row>
     <row r="14" spans="1:9" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="I14" s="12">
-        <v>62006</v>
-      </c>
+      <c r="I14" s="12"/>
     </row>
     <row r="16" spans="1:9" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="I16" s="12">
-        <v>134301514</v>
-      </c>
+      <c r="I16" s="12"/>
     </row>
     <row r="17" spans="9:10" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="J17" s="12">
-        <v>117520202</v>
-      </c>
+      <c r="J17" s="12"/>
     </row>
     <row r="18" spans="9:10" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="I18" s="12">
-        <v>21289802</v>
-      </c>
+      <c r="I18" s="12"/>
     </row>
     <row r="20" spans="9:10" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="I20" s="12">
-        <v>23528522</v>
-      </c>
+      <c r="I20" s="12"/>
     </row>
     <row r="21" spans="9:10" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="I21" s="12">
-        <v>25567042</v>
-      </c>
+      <c r="I21" s="12"/>
     </row>
     <row r="24" spans="9:10" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="I24" s="12">
-        <v>6964106</v>
-      </c>
+      <c r="I24" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/w6_7/experiments.xlsx
+++ b/w6_7/experiments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\vinbrain-internship\w6_7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{669FEBFF-8E69-4CD7-93DA-EBCD330AF82F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52D73EC5-3CDF-4A3D-94BF-D38208D91CF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -541,8 +541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G31" sqref="A20:G31"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -756,8 +756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C089812-934E-4504-8E4A-D88B7C9025AF}">
   <dimension ref="A5:J24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="C7:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/w6_7/experiments.xlsx
+++ b/w6_7/experiments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\vinbrain-internship\w6_7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52D73EC5-3CDF-4A3D-94BF-D38208D91CF5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C25A81D2-229D-401F-A74D-BDBD91304123}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="33">
   <si>
     <t>Dataset</t>
   </si>
@@ -130,6 +130,9 @@
     <t>- first 40 epochs: rate positive:0.8 - lr~=1e-4
 - next 40 epochs: rate postive:0.6 - lr~=5e-5
 - final: rate postive:0.4 - lr~=1e-5</t>
+  </si>
+  <si>
+    <t>BCE</t>
   </si>
 </sst>
 </file>
@@ -541,8 +544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:F24"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -555,7 +558,7 @@
     <col min="6" max="6" width="20.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -566,7 +569,7 @@
       <c r="D2" s="15"/>
       <c r="E2" s="4"/>
     </row>
-    <row r="3" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -577,7 +580,7 @@
       <c r="D3" s="15"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:5" ht="60.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="60.75" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -593,8 +596,11 @@
       <c r="E4" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F4" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -610,8 +616,11 @@
       <c r="E5" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
@@ -627,8 +636,11 @@
       <c r="E6" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="F6" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -644,8 +656,11 @@
       <c r="E7" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="60.75" x14ac:dyDescent="0.3">
+      <c r="F7" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="45.75" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -661,8 +676,11 @@
       <c r="E8" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F8" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
@@ -678,8 +696,11 @@
       <c r="E9" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="F9" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -695,8 +716,11 @@
       <c r="E10">
         <v>80.91</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="90.75" x14ac:dyDescent="0.3">
+      <c r="F10">
+        <v>80.790000000000006</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="165.75" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -712,8 +736,11 @@
       <c r="E11" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -756,7 +783,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C089812-934E-4504-8E4A-D88B7C9025AF}">
   <dimension ref="A5:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="C7:D7"/>
     </sheetView>
   </sheetViews>
